--- a/caloTracker_exercise.xlsx
+++ b/caloTracker_exercise.xlsx
@@ -133,7 +133,7 @@
     <t xml:space="preserve">Bóng chuyền (thi đấu)</t>
   </si>
   <si>
-    <t xml:space="preserve">excerabc</t>
+    <t xml:space="preserve">Bài tập 1</t>
   </si>
 </sst>
 </file>
